--- a/saleManagement/saleManagement/bin/Debugreceipt.xlsx.xlsx
+++ b/saleManagement/saleManagement/bin/Debugreceipt.xlsx.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4609A0-F1B4-4A1E-8061-783CB27BA537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{618137C2-D261-4248-905D-D9072E8F16FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{68687564-C5CC-40C9-9989-B16877D5CD31}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{513C6001-FCCD-449D-8E2F-71B96A455426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21FB9A2-E028-468B-A532-12CCEB62EC0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F67E1-189D-46D9-B3DF-D61DD53E88C9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
